--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562698.0637499255</v>
+        <v>-548900.2044041423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9352100.325361015</v>
+        <v>9402001.849792104</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>319.6205266464564</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>233.9954141492344</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>93.02156379715173</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>169.9759879929368</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>75.64195919506047</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>231.3579874283251</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>260.7202811465341</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>378.4804603970944</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>261.4557957275845</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>232.7124448908203</v>
+        <v>285.122297194914</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>35.51678257079519</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>187.6803791150325</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752767</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704903</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>61.08641542222801</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948834</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791322698</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>111.2693566202701</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>216.3435670553984</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2141,10 +2141,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430779</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>61.43755362246757</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>24.62703520776977</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>159.271233852086</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>186.7535668023732</v>
+        <v>50.30825486907133</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2855,7 +2855,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864815</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2953,16 +2953,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>109.142675762685</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257829</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>24.40875262509098</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.3431845617047</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3484,10 +3484,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>125.171654445485</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432379</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3913,7 +3913,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.267442227781</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
         <v>71.53763939432405</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>783.0196126766072</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>748.9175439004346</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>717.0481631152832</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>480.6891589241372</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.82172933334497</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.82172933334497</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.82172933334497</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048497</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134029</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1136.170759424404</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301596</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301596</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301596</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301596</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312597</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271192</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024249</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024249</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2400.179770897287</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2400.179770897287</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2037.562820831114</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1632.707366242147</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1213.564902821458</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>805.2787791211109</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517778</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.12022378842</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349733</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>262.909520261927</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780886</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.1405921442725</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048497</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094258</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871549</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.538070098156</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.538070098156</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.538070098156</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.538070098156</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218279</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134401</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523202</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315409</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>713.0812255390611</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>540.519514022286</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>540.519514022286</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>540.519514022286</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>446.5583384696075</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>280.9670634954351</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0648891858096</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048497</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251748</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>413.7430796963104</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>783.1354096252356</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1242.619276806149</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1684.878079963793</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2104.547329189575</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2452.054223159917</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024249</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024249</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2461.005629322245</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2215.1261829007</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1936.693182153806</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1649.737674024236</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1377.711269610528</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1132.31951494394</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>904.8998442580482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>687.7796263806116</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C5" t="n">
-        <v>259.1979521178799</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.24202645431</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1133.426975905747</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X5" t="n">
-        <v>714.2845124850579</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.0387928251154</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.5349435757807</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>199.5349435757807</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>199.5349435757807</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>199.5349435757807</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.5349435757807</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1765592791144</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>126.8227399391809</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D8" t="n">
-        <v>94.95335915402947</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>65.21901835272871</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>41.3919928023405</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>41.3919928023405</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>41.3919928023405</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.9752034294805</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>40.9752034294805</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>548.0433458693017</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>548.0433458693017</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>548.0433458693017</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>548.0433458693017</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>865.4698218413258</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281147</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720968</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474025</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474025</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474025</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474025</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.904716885058</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.762253464369</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>816.4761297640222</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326802</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.9752034294805</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.0388765899381</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959716</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768467</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644306</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.9752034294805</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.9752034294805</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.9752034294805</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>379.8413579393442</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>839.3252251202572</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1281.584028277902</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1701.253277503683</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474025</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2048.760171474025</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2048.760171474025</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>2048.760171474025</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1784.663408112828</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1669.901151299784</v>
+        <v>2210.036257710528</v>
       </c>
       <c r="C11" t="n">
-        <v>1231.758678483207</v>
+        <v>1771.893784893952</v>
       </c>
       <c r="D11" t="n">
-        <v>795.8488936576514</v>
+        <v>1335.984000068396</v>
       </c>
       <c r="E11" t="n">
-        <v>362.0741488159467</v>
+        <v>902.2092552266913</v>
       </c>
       <c r="F11" t="n">
-        <v>362.0741488159467</v>
+        <v>474.3418256358992</v>
       </c>
       <c r="G11" t="n">
-        <v>362.0741488159467</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="J11" t="n">
         <v>508.1986817120809</v>
@@ -5045,46 +5045,46 @@
         <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>2028.864933289357</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="M11" t="n">
-        <v>2028.864933289357</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="N11" t="n">
-        <v>2028.864933289357</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="O11" t="n">
-        <v>2931.546862246499</v>
+        <v>2103.236987413105</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246499</v>
+        <v>2931.546862246501</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205094</v>
+        <v>3478.045648205096</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958153</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141987</v>
+        <v>3563.54783914199</v>
       </c>
       <c r="T11" t="n">
-        <v>3563.547839141987</v>
+        <v>3343.480612015029</v>
       </c>
       <c r="U11" t="n">
-        <v>3563.547839141987</v>
+        <v>3343.480612015029</v>
       </c>
       <c r="V11" t="n">
-        <v>3328.484763494694</v>
+        <v>3055.478291616126</v>
       </c>
       <c r="W11" t="n">
-        <v>2923.629308905727</v>
+        <v>3055.478291616126</v>
       </c>
       <c r="X11" t="n">
-        <v>2504.486845485038</v>
+        <v>2636.335828195437</v>
       </c>
       <c r="Y11" t="n">
-        <v>2096.200721784691</v>
+        <v>2636.335828195437</v>
       </c>
     </row>
     <row r="12">
@@ -5100,25 +5100,25 @@
         <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336514</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606051</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767667</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="I12" t="n">
-        <v>99.0076674196206</v>
+        <v>99.00766741962066</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>423.565992385833</v>
       </c>
       <c r="K12" t="n">
         <v>1078.272039011557</v>
@@ -5176,73 +5176,73 @@
         <v>1012.099980561419</v>
       </c>
       <c r="C13" t="n">
-        <v>839.5382690446437</v>
+        <v>839.538269044644</v>
       </c>
       <c r="D13" t="n">
-        <v>673.6602762461664</v>
+        <v>673.6602762461667</v>
       </c>
       <c r="E13" t="n">
-        <v>503.9022724969036</v>
+        <v>503.9022724969039</v>
       </c>
       <c r="F13" t="n">
-        <v>327.1952184586598</v>
+        <v>327.1952184586601</v>
       </c>
       <c r="G13" t="n">
-        <v>161.6039434844874</v>
+        <v>161.6039434844877</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6039434844874</v>
+        <v>161.6039434844877</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916306</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2668.185782867335</v>
+        <v>2689.603604161962</v>
       </c>
       <c r="S13" t="n">
-        <v>2508.944414165331</v>
+        <v>2530.362235459959</v>
       </c>
       <c r="T13" t="n">
-        <v>2263.064967743786</v>
+        <v>2284.482789038414</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.631966996892</v>
+        <v>2006.049788291519</v>
       </c>
       <c r="V13" t="n">
-        <v>1948.756429046593</v>
+        <v>1719.09428016195</v>
       </c>
       <c r="W13" t="n">
-        <v>1676.730024632885</v>
+        <v>1447.067875748241</v>
       </c>
       <c r="X13" t="n">
-        <v>1431.338269966298</v>
+        <v>1201.676121081654</v>
       </c>
       <c r="Y13" t="n">
-        <v>1203.918599280406</v>
+        <v>1012.099980561419</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,22 +5285,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657334</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405589</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5473,13 +5473,13 @@
         <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1134.430677610026</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2291.478512820577</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1039.174348374283</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C19" t="n">
-        <v>866.6126368575082</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5704,19 +5704,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2095.270779438517</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y19" t="n">
-        <v>1230.99296709327</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="20">
@@ -5750,16 +5750,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>388.1086717343214</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5829,7 +5829,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883946</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716199</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>639.1929661716199</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>469.4349624223572</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>292.7279083841133</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>127.136633409941</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5911,49 +5911,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066082</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.41112617357</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093274</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407382</v>
+        <v>982.1554751127507</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,25 +6069,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477105</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6506,7 +6506,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937638</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769887</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>617.7751448769887</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>617.7751448769887</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>441.068090838745</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798643</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.155475112751</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6777,28 +6777,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>414.500552094942</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>414.500552094942</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>863.6545912985333</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>697.776598500056</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1228.034921534296</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883918</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716167</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731394</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238766</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856328</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
+        <v>330.8229638057298</v>
+      </c>
+      <c r="H37" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H37" t="n">
-        <v>102.2608402707796</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102.2608402707798</v>
-      </c>
       <c r="J37" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>153.4018419862336</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>153.4018419862336</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7312,19 +7312,19 @@
         <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581786</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7394,10 +7394,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,22 +7409,22 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>837.7378409237801</v>
+        <v>540.3167323207291</v>
       </c>
       <c r="L41" t="n">
-        <v>1912.797807176639</v>
+        <v>1615.376698573589</v>
       </c>
       <c r="M41" t="n">
-        <v>3069.84564238719</v>
+        <v>2772.424533784139</v>
       </c>
       <c r="N41" t="n">
-        <v>3069.84564238719</v>
+        <v>3898.155517220586</v>
       </c>
       <c r="O41" t="n">
-        <v>4050.025308957497</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
         <v>4878.335183790892</v>
@@ -7454,7 +7454,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936665</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080653</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716786</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463111</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850148</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7573,13 +7573,13 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7591,28 +7591,28 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7634,46 +7634,46 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M44" t="n">
-        <v>3182.502666508935</v>
+        <v>2772.424533784138</v>
       </c>
       <c r="N44" t="n">
-        <v>3182.502666508935</v>
+        <v>3898.155517220585</v>
       </c>
       <c r="O44" t="n">
-        <v>4162.682333079241</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7828,28 +7828,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850419</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>6.257489509820516</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>373.123565584773</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>320.6328040121457</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>342.2890449594583</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>693.2484440596947</v>
+        <v>768.3717310533805</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395376</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1042.595795292168</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,10 +9243,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,10 +9477,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,13 +9717,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10191,13 +10191,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.39912960648061</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949895894</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>307.9964139343883</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11069,13 +11069,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>747.7485021910729</v>
+        <v>773.1793655528113</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>126.2783356746914</v>
+        <v>73.86848337059767</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>248.5691704774787</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>37.46509486400032</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.538708137538961e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.4463752142696</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52.9498562502224</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>59.3051036840273</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>128.4628789093297</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>113.8761173587595</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>8.789189859684152</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.146865729424007</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>54.79268646174556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>117.7661826744367</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>786259.737612121</v>
+        <v>805192.4240618587</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>786259.737612121</v>
+        <v>806214.1409043889</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>793470.825167719</v>
+        <v>806214.1409043889</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653184.2395958422</v>
+        <v>653184.2395958423</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831940.1636265398</v>
+        <v>831940.1636265396</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831940.1636265398</v>
+        <v>831940.1636265399</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>831940.1636265396</v>
+        <v>831940.1636265395</v>
       </c>
     </row>
     <row r="10">
@@ -26320,7 +26320,7 @@
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>155120.112080805</v>
+        <v>155120.1120808051</v>
       </c>
       <c r="F2" t="n">
         <v>197571.5940515071</v>
@@ -26329,7 +26329,7 @@
         <v>197571.5940515071</v>
       </c>
       <c r="H2" t="n">
-        <v>197571.5940515072</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26350,7 +26350,7 @@
         <v>201055.2449589031</v>
       </c>
       <c r="O2" t="n">
-        <v>201055.2449589032</v>
+        <v>201055.2449589031</v>
       </c>
       <c r="P2" t="n">
         <v>201055.2449589031</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.25867972</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948431</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.5707947741</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543118</v>
+        <v>72938.04361534416</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540558</v>
+        <v>105000.4827540555</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877641</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347374676</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.2272640124</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400244</v>
+        <v>60876.72976950152</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716073</v>
+        <v>88373.14763716041</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>184344.3895735671</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>205320.7071758598</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>85043.57401430386</v>
+        <v>85043.57401430391</v>
       </c>
       <c r="F4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.317828463</v>
       </c>
       <c r="G4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.317828463</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26442,7 +26442,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="K4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.317828463</v>
       </c>
       <c r="L4" t="n">
         <v>108317.3178284629</v>
@@ -26451,7 +26451,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>120278.8232507374</v>
+        <v>120278.8232507375</v>
       </c>
       <c r="O4" t="n">
         <v>120278.8232507374</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996858</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640517</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696388</v>
+        <v>55437.43563696393</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26494,22 +26494,22 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218786.1098705982</v>
+        <v>-276270.7576643525</v>
       </c>
       <c r="C6" t="n">
-        <v>-76594.8092108882</v>
+        <v>-59696.60880513066</v>
       </c>
       <c r="D6" t="n">
-        <v>-96336.78761813583</v>
+        <v>-55673.26187618218</v>
       </c>
       <c r="E6" t="n">
-        <v>-104675.6179247745</v>
+        <v>-58605.17540499425</v>
       </c>
       <c r="F6" t="n">
-        <v>-93464.44513680413</v>
+        <v>-93487.66947618651</v>
       </c>
       <c r="G6" t="n">
-        <v>11536.03761725171</v>
+        <v>11512.81327786897</v>
       </c>
       <c r="H6" t="n">
-        <v>11536.03761725171</v>
+        <v>11512.81327786904</v>
       </c>
       <c r="I6" t="n">
-        <v>11536.03761725167</v>
+        <v>11512.81327786901</v>
       </c>
       <c r="J6" t="n">
-        <v>-99478.42772773856</v>
+        <v>-159880.1631098951</v>
       </c>
       <c r="K6" t="n">
-        <v>11536.03761725163</v>
+        <v>8307.691930494339</v>
       </c>
       <c r="L6" t="n">
-        <v>-10709.18964676073</v>
+        <v>11512.81327786901</v>
       </c>
       <c r="M6" t="n">
-        <v>-88048.34425675077</v>
+        <v>-49363.91649163253</v>
       </c>
       <c r="N6" t="n">
-        <v>-83112.34065508476</v>
+        <v>-83112.34065508445</v>
       </c>
       <c r="O6" t="n">
-        <v>5260.806982076043</v>
+        <v>5260.80698207597</v>
       </c>
       <c r="P6" t="n">
-        <v>5260.806982076028</v>
+        <v>5260.806982075999</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395376</v>
+        <v>911.7999282395383</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179484</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840195</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710313</v>
+        <v>244.2847216316814</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452077</v>
+        <v>366.4605751452068</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179461</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840195</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710311</v>
+        <v>244.2847216316814</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081859</v>
+        <v>307.7838677081845</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179484</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840195</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710313</v>
+        <v>244.2847216316814</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452077</v>
+        <v>366.4605751452068</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1405214419545</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>195.4415832440533</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27546,16 +27546,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>81.91841970070961</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>261.5746989843631</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>339.3090795914219</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27783,16 +27783,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.57984969159659</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>173.0407669418768</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>53.07022658020554</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.850344641986851</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.250999386887997e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28861,10 +28861,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850419</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.018975715752</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,10 +34775,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>655.0617495060621</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>6.257489509820516</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>373.123565584773</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>320.6328040121457</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>342.2890449594583</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>693.2484440596947</v>
+        <v>768.3717310533805</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395376</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1042.595795292168</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,10 +36197,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960997</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,13 +36437,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37145,19 +37145,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.39912960648061</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,10 +37552,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949895894</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>307.9964139343883</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,13 +37789,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
         <v>186.127402120901</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>747.7485021910729</v>
+        <v>773.1793655528113</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38035,10 +38035,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,7 +38187,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
